--- a/4.项目提交制品/4.4软件测试/功能性测试范围.xlsx
+++ b/4.项目提交制品/4.4软件测试/功能性测试范围.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12310" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Django单元测试" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="430">
   <si>
     <t>编号</t>
   </si>
@@ -1272,6 +1272,55 @@
   </si>
   <si>
     <t>musicsearch爬虫脚本测试</t>
+  </si>
+  <si>
+    <t>SCUT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCUT02</t>
+  </si>
+  <si>
+    <t>SCUT03</t>
+  </si>
+  <si>
+    <t>SCUT04</t>
+  </si>
+  <si>
+    <t>SCUT05</t>
+  </si>
+  <si>
+    <t>SCUT06</t>
+  </si>
+  <si>
+    <t>SCUT07</t>
+  </si>
+  <si>
+    <t>SCUT08</t>
+  </si>
+  <si>
+    <t>SCUT09</t>
+  </si>
+  <si>
+    <t>SCUT10</t>
+  </si>
+  <si>
+    <t>SCUT11</t>
+  </si>
+  <si>
+    <t>SCUT12</t>
+  </si>
+  <si>
+    <t>SCUT13</t>
+  </si>
+  <si>
+    <t>SCUT14</t>
+  </si>
+  <si>
+    <t>SCUT15</t>
+  </si>
+  <si>
+    <t>SCUT16</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2586,7 +2635,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>287</v>
@@ -2600,7 +2649,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>290</v>
@@ -2611,7 +2660,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>292</v>
@@ -2622,7 +2671,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>294</v>
@@ -2633,7 +2682,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
         <v>296</v>
@@ -2647,7 +2696,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>298</v>
@@ -2658,7 +2707,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
         <v>299</v>
@@ -2669,7 +2718,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>300</v>
@@ -2680,7 +2729,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>301</v>
@@ -2694,7 +2743,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>303</v>
@@ -2705,7 +2754,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
         <v>304</v>
@@ -2716,7 +2765,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
         <v>305</v>
@@ -2727,7 +2776,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>426</v>
       </c>
       <c r="B14" t="s">
         <v>306</v>
@@ -2741,7 +2790,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s">
         <v>309</v>
@@ -2755,7 +2804,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
         <v>311</v>
@@ -2769,7 +2818,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
         <v>313</v>
@@ -2784,6 +2833,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3038,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
